--- a/api/python/TaiGer_Transcript-Program_Comparer/database/EE_Course_database.xlsx
+++ b/api/python/TaiGer_Transcript-Program_Comparer/database/EE_Course_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\20110706\TaiGer_Transcript-Program_Comparer\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170EC148-1F01-4723-B1D0-E2EFD28EAD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56983250-4BB1-44A9-B083-C3D2056982D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21825" yWindow="-16350" windowWidth="29040" windowHeight="15840" xr2:uid="{4A678F9F-A21C-41A5-9AEE-FA5C928DC178}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>再生能源導論</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>物聯網技術</t>
-  </si>
-  <si>
-    <t>Python機器學習概論</t>
   </si>
   <si>
     <t>積體電路製程技術</t>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>光電感應技術與應用</t>
-  </si>
-  <si>
-    <t>Python 程式基礎與應用</t>
   </si>
   <si>
     <t>電子學(三)</t>
@@ -756,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C323114-BC5F-49C1-9F53-9EA9AB7CC060}">
-  <dimension ref="A1:W422"/>
+  <dimension ref="A1:W420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -770,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -820,7 +814,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -845,7 +839,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -870,7 +864,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -895,7 +889,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -920,7 +914,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5"/>
@@ -944,7 +938,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
@@ -968,7 +962,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
@@ -1016,7 +1010,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
@@ -1064,7 +1058,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
@@ -1088,7 +1082,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
@@ -1112,7 +1106,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
@@ -1136,7 +1130,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
@@ -1160,7 +1154,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
@@ -1184,7 +1178,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5"/>
       <c r="D18" s="5"/>
@@ -1208,7 +1202,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5"/>
       <c r="D19" s="5"/>
@@ -1232,7 +1226,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5"/>
       <c r="D20" s="5"/>
@@ -1256,7 +1250,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5"/>
       <c r="D21" s="5"/>
@@ -1280,7 +1274,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="5"/>
       <c r="D22" s="5"/>
@@ -1304,7 +1298,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5"/>
       <c r="D23" s="5"/>
@@ -1328,7 +1322,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5"/>
       <c r="D24" s="5"/>
@@ -1352,7 +1346,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5"/>
       <c r="D25" s="5"/>
@@ -1376,7 +1370,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="5"/>
       <c r="D26" s="5"/>
@@ -1400,7 +1394,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5"/>
       <c r="D27" s="5"/>
@@ -1424,7 +1418,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="5"/>
       <c r="D28" s="5"/>
@@ -1448,7 +1442,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5"/>
       <c r="D29" s="5"/>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="5"/>
       <c r="D30" s="5"/>
@@ -1496,7 +1490,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" s="5"/>
       <c r="D31" s="5"/>
@@ -1520,7 +1514,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" s="5"/>
       <c r="D32" s="5"/>
@@ -1544,7 +1538,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="5"/>
       <c r="D33" s="5"/>
@@ -1568,7 +1562,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="5"/>
       <c r="D34" s="5"/>
@@ -1592,7 +1586,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="5"/>
       <c r="D35" s="5"/>
@@ -1616,7 +1610,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="5"/>
       <c r="D36" s="5"/>
@@ -1640,7 +1634,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="5"/>
       <c r="D37" s="5"/>
@@ -1688,7 +1682,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="5"/>
       <c r="D39" s="5"/>
@@ -1712,7 +1706,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" s="5"/>
       <c r="D40" s="5"/>
@@ -1736,7 +1730,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" s="5"/>
       <c r="D41" s="5"/>
@@ -1760,7 +1754,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" s="5"/>
       <c r="D42" s="5"/>
@@ -1784,7 +1778,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="5"/>
       <c r="D43" s="5"/>
@@ -1808,7 +1802,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="5"/>
       <c r="D44" s="5"/>
@@ -1832,7 +1826,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5"/>
       <c r="D45" s="5"/>
@@ -1856,7 +1850,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" s="5"/>
       <c r="D46" s="5"/>
@@ -1880,7 +1874,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="5"/>
       <c r="D47" s="5"/>
@@ -1904,7 +1898,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B48" s="5"/>
       <c r="D48" s="5"/>
@@ -1928,7 +1922,7 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="5"/>
       <c r="D49" s="5"/>
@@ -1952,7 +1946,7 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" s="5"/>
       <c r="D50" s="5"/>
@@ -1976,7 +1970,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="5"/>
       <c r="D51" s="5"/>
@@ -2000,7 +1994,7 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="5"/>
       <c r="D52" s="5"/>
@@ -2024,7 +2018,7 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="5"/>
       <c r="D53" s="5"/>
@@ -2048,7 +2042,7 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="5"/>
       <c r="D54" s="5"/>
@@ -2072,7 +2066,7 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" s="5"/>
       <c r="D55" s="5"/>
@@ -2096,7 +2090,7 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="5"/>
       <c r="D56" s="5"/>
@@ -2119,8 +2113,8 @@
       <c r="W56" s="7"/>
     </row>
     <row r="57" spans="1:23">
-      <c r="A57" s="9" t="s">
-        <v>8</v>
+      <c r="A57" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B57" s="5"/>
       <c r="D57" s="5"/>
@@ -2144,7 +2138,7 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="5"/>
       <c r="D58" s="5"/>
@@ -2167,8 +2161,8 @@
       <c r="W58" s="7"/>
     </row>
     <row r="59" spans="1:23">
-      <c r="A59" s="10" t="s">
-        <v>55</v>
+      <c r="A59" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B59" s="5"/>
       <c r="D59" s="5"/>
@@ -2192,7 +2186,7 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="9" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B60" s="5"/>
       <c r="D60" s="5"/>
@@ -2216,7 +2210,7 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="9" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B61" s="5"/>
       <c r="D61" s="5"/>
@@ -2240,7 +2234,7 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62" s="9" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B62" s="5"/>
       <c r="D62" s="5"/>
@@ -2264,7 +2258,7 @@
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="9" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B63" s="5"/>
       <c r="D63" s="5"/>
@@ -2288,7 +2282,7 @@
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="9" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B64" s="5"/>
       <c r="D64" s="5"/>
@@ -2312,7 +2306,7 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="9" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B65" s="5"/>
       <c r="D65" s="5"/>
@@ -2336,7 +2330,7 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" s="5"/>
       <c r="D66" s="5"/>
@@ -2360,7 +2354,7 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="5"/>
       <c r="D67" s="5"/>
@@ -2384,7 +2378,7 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="9" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B68" s="5"/>
       <c r="D68" s="5"/>
@@ -2408,7 +2402,7 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B69" s="5"/>
       <c r="D69" s="5"/>
@@ -2432,7 +2426,7 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B70" s="5"/>
       <c r="D70" s="5"/>
@@ -2456,7 +2450,7 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B71" s="5"/>
       <c r="D71" s="5"/>
@@ -2480,7 +2474,7 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B72" s="5"/>
       <c r="D72" s="5"/>
@@ -2499,12 +2493,12 @@
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
+      <c r="V72" s="1"/>
       <c r="W72" s="7"/>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B73" s="5"/>
       <c r="D73" s="5"/>
@@ -2528,7 +2522,7 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="9" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B74" s="5"/>
       <c r="D74" s="5"/>
@@ -2552,7 +2546,7 @@
     </row>
     <row r="75" spans="1:23">
       <c r="A75" s="9" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B75" s="5"/>
       <c r="D75" s="5"/>
@@ -2571,12 +2565,12 @@
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
-      <c r="V75" s="1"/>
+      <c r="V75" s="5"/>
       <c r="W75" s="7"/>
     </row>
     <row r="76" spans="1:23">
-      <c r="A76" s="9" t="s">
-        <v>6</v>
+      <c r="A76" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B76" s="5"/>
       <c r="D76" s="5"/>
@@ -2595,12 +2589,12 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
-      <c r="V76" s="1"/>
+      <c r="V76" s="5"/>
       <c r="W76" s="7"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="9" t="s">
-        <v>5</v>
+      <c r="A77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B77" s="5"/>
       <c r="D77" s="5"/>
@@ -2619,12 +2613,12 @@
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
+      <c r="V77" s="1"/>
       <c r="W77" s="7"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="10" t="s">
-        <v>58</v>
+      <c r="A78" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="B78" s="5"/>
       <c r="D78" s="5"/>
@@ -2643,12 +2637,12 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
+      <c r="V78" s="1"/>
       <c r="W78" s="7"/>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="11" t="s">
-        <v>59</v>
+      <c r="A79" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="B79" s="5"/>
       <c r="D79" s="5"/>
@@ -2671,7 +2665,7 @@
       <c r="W79" s="7"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B80" s="5"/>
@@ -2696,7 +2690,7 @@
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B81" s="5"/>
       <c r="D81" s="5"/>
@@ -2715,12 +2709,12 @@
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
-      <c r="V81" s="1"/>
+      <c r="V81" s="5"/>
       <c r="W81" s="7"/>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" s="5"/>
       <c r="D82" s="5"/>
@@ -2739,12 +2733,12 @@
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
-      <c r="V82" s="1"/>
+      <c r="V82" s="5"/>
       <c r="W82" s="7"/>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" s="13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B83" s="5"/>
       <c r="D83" s="5"/>
@@ -2767,8 +2761,8 @@
       <c r="W83" s="7"/>
     </row>
     <row r="84" spans="1:23">
-      <c r="A84" s="13" t="s">
-        <v>94</v>
+      <c r="A84" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="B84" s="5"/>
       <c r="D84" s="5"/>
@@ -2791,8 +2785,8 @@
       <c r="W84" s="7"/>
     </row>
     <row r="85" spans="1:23">
-      <c r="A85" s="13" t="s">
-        <v>95</v>
+      <c r="A85" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B85" s="5"/>
       <c r="D85" s="5"/>
@@ -2816,7 +2810,7 @@
     </row>
     <row r="86" spans="1:23">
       <c r="A86" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B86" s="5"/>
       <c r="D86" s="5"/>
@@ -2840,7 +2834,7 @@
     </row>
     <row r="87" spans="1:23">
       <c r="A87" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B87" s="5"/>
       <c r="D87" s="5"/>
@@ -2864,7 +2858,7 @@
     </row>
     <row r="88" spans="1:23">
       <c r="A88" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B88" s="5"/>
       <c r="D88" s="5"/>
@@ -2963,6 +2957,7 @@
         <v>77</v>
       </c>
       <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="H92" s="5"/>
@@ -2987,6 +2982,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="H93" s="5"/>
@@ -3057,9 +3053,6 @@
       <c r="W95" s="7"/>
     </row>
     <row r="96" spans="1:23">
-      <c r="A96" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3082,9 +3075,6 @@
       <c r="W96" s="7"/>
     </row>
     <row r="97" spans="1:23">
-      <c r="A97" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3103,10 +3093,11 @@
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
+      <c r="V97" s="1"/>
       <c r="W97" s="7"/>
     </row>
     <row r="98" spans="1:23">
+      <c r="A98" s="3"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3125,10 +3116,11 @@
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
-      <c r="V98" s="5"/>
+      <c r="V98" s="1"/>
       <c r="W98" s="7"/>
     </row>
     <row r="99" spans="1:23">
+      <c r="A99" s="3"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3147,7 +3139,7 @@
       <c r="S99" s="5"/>
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
-      <c r="V99" s="1"/>
+      <c r="V99" s="5"/>
       <c r="W99" s="7"/>
     </row>
     <row r="100" spans="1:23">
@@ -3170,7 +3162,7 @@
       <c r="S100" s="5"/>
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
-      <c r="V100" s="1"/>
+      <c r="V100" s="5"/>
       <c r="W100" s="7"/>
     </row>
     <row r="101" spans="1:23">
@@ -3285,7 +3277,7 @@
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
+      <c r="V105" s="1"/>
       <c r="W105" s="7"/>
     </row>
     <row r="106" spans="1:23">
@@ -3308,7 +3300,7 @@
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
-      <c r="V106" s="5"/>
+      <c r="V106" s="1"/>
       <c r="W106" s="7"/>
     </row>
     <row r="107" spans="1:23">
@@ -3331,7 +3323,7 @@
       <c r="S107" s="5"/>
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
-      <c r="V107" s="1"/>
+      <c r="V107" s="5"/>
       <c r="W107" s="7"/>
     </row>
     <row r="108" spans="1:23">
@@ -3354,7 +3346,7 @@
       <c r="S108" s="5"/>
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
-      <c r="V108" s="1"/>
+      <c r="V108" s="5"/>
       <c r="W108" s="7"/>
     </row>
     <row r="109" spans="1:23">
@@ -3404,7 +3396,6 @@
       <c r="W110" s="7"/>
     </row>
     <row r="111" spans="1:23">
-      <c r="A111" s="3"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3427,7 +3418,6 @@
       <c r="W111" s="7"/>
     </row>
     <row r="112" spans="1:23">
-      <c r="A112" s="3"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3512,7 +3502,7 @@
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
-      <c r="V115" s="5"/>
+      <c r="V115" s="1"/>
       <c r="W115" s="7"/>
     </row>
     <row r="116" spans="1:23">
@@ -3534,7 +3524,7 @@
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
+      <c r="V116" s="1"/>
       <c r="W116" s="7"/>
     </row>
     <row r="117" spans="1:23">
@@ -3692,6 +3682,7 @@
       <c r="W123" s="7"/>
     </row>
     <row r="124" spans="1:23">
+      <c r="A124" s="3"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -3732,11 +3723,10 @@
       <c r="S125" s="5"/>
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
-      <c r="V125" s="1"/>
+      <c r="V125" s="5"/>
       <c r="W125" s="7"/>
     </row>
     <row r="126" spans="1:23">
-      <c r="A126" s="3"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -3755,7 +3745,7 @@
       <c r="S126" s="5"/>
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
-      <c r="V126" s="1"/>
+      <c r="V126" s="5"/>
       <c r="W126" s="7"/>
     </row>
     <row r="127" spans="1:23">
@@ -3777,7 +3767,7 @@
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
-      <c r="V127" s="5"/>
+      <c r="V127" s="1"/>
       <c r="W127" s="7"/>
     </row>
     <row r="128" spans="1:23">
@@ -3821,7 +3811,7 @@
       <c r="S129" s="5"/>
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
-      <c r="V129" s="1"/>
+      <c r="V129" s="5"/>
       <c r="W129" s="7"/>
     </row>
     <row r="130" spans="1:23">
@@ -3843,10 +3833,11 @@
       <c r="S130" s="5"/>
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
+      <c r="V130" s="1"/>
       <c r="W130" s="7"/>
     </row>
     <row r="131" spans="1:23">
+      <c r="A131" s="3"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -3865,7 +3856,7 @@
       <c r="S131" s="5"/>
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
-      <c r="V131" s="5"/>
+      <c r="V131" s="1"/>
       <c r="W131" s="7"/>
     </row>
     <row r="132" spans="1:23">
@@ -3936,7 +3927,6 @@
       <c r="W134" s="7"/>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="3"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4043,7 +4033,7 @@
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
-      <c r="V139" s="1"/>
+      <c r="V139" s="5"/>
       <c r="W139" s="7"/>
     </row>
     <row r="140" spans="1:23">
@@ -4065,7 +4055,7 @@
       <c r="S140" s="5"/>
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
-      <c r="V140" s="1"/>
+      <c r="V140" s="5"/>
       <c r="W140" s="7"/>
     </row>
     <row r="141" spans="1:23">
@@ -4087,7 +4077,7 @@
       <c r="S141" s="5"/>
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
+      <c r="V141" s="1"/>
       <c r="W141" s="7"/>
     </row>
     <row r="142" spans="1:23">
@@ -4131,7 +4121,7 @@
       <c r="S143" s="5"/>
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
-      <c r="V143" s="1"/>
+      <c r="V143" s="5"/>
       <c r="W143" s="7"/>
     </row>
     <row r="144" spans="1:23">
@@ -4175,7 +4165,7 @@
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
+      <c r="V145" s="1"/>
       <c r="W145" s="7"/>
     </row>
     <row r="146" spans="2:23">
@@ -4197,7 +4187,7 @@
       <c r="S146" s="5"/>
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
-      <c r="V146" s="5"/>
+      <c r="V146" s="1"/>
       <c r="W146" s="7"/>
     </row>
     <row r="147" spans="2:23">
@@ -4219,7 +4209,7 @@
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
-      <c r="V147" s="1"/>
+      <c r="V147" s="5"/>
       <c r="W147" s="7"/>
     </row>
     <row r="148" spans="2:23">
@@ -4241,7 +4231,7 @@
       <c r="S148" s="5"/>
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
-      <c r="V148" s="1"/>
+      <c r="V148" s="5"/>
       <c r="W148" s="7"/>
     </row>
     <row r="149" spans="2:23">
@@ -4571,7 +4561,7 @@
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
-      <c r="V163" s="5"/>
+      <c r="V163" s="1"/>
       <c r="W163" s="7"/>
     </row>
     <row r="164" spans="2:23">
@@ -4593,7 +4583,7 @@
       <c r="S164" s="5"/>
       <c r="T164" s="5"/>
       <c r="U164" s="5"/>
-      <c r="V164" s="5"/>
+      <c r="V164" s="1"/>
       <c r="W164" s="7"/>
     </row>
     <row r="165" spans="2:23">
@@ -4615,7 +4605,7 @@
       <c r="S165" s="5"/>
       <c r="T165" s="5"/>
       <c r="U165" s="5"/>
-      <c r="V165" s="1"/>
+      <c r="V165" s="5"/>
       <c r="W165" s="7"/>
     </row>
     <row r="166" spans="2:23">
@@ -4637,7 +4627,7 @@
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
-      <c r="V166" s="1"/>
+      <c r="V166" s="5"/>
       <c r="W166" s="7"/>
     </row>
     <row r="167" spans="2:23">
@@ -4659,7 +4649,7 @@
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
-      <c r="V167" s="5"/>
+      <c r="V167" s="1"/>
       <c r="W167" s="7"/>
     </row>
     <row r="168" spans="2:23">
@@ -4681,7 +4671,7 @@
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
-      <c r="V168" s="5"/>
+      <c r="V168" s="1"/>
       <c r="W168" s="7"/>
     </row>
     <row r="169" spans="2:23">
@@ -4703,7 +4693,7 @@
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
-      <c r="V169" s="1"/>
+      <c r="V169" s="5"/>
       <c r="W169" s="7"/>
     </row>
     <row r="170" spans="2:23">
@@ -4725,7 +4715,7 @@
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
-      <c r="V170" s="1"/>
+      <c r="V170" s="5"/>
       <c r="W170" s="7"/>
     </row>
     <row r="171" spans="2:23">
@@ -5055,7 +5045,7 @@
       <c r="S185" s="5"/>
       <c r="T185" s="5"/>
       <c r="U185" s="5"/>
-      <c r="V185" s="5"/>
+      <c r="V185" s="1"/>
       <c r="W185" s="7"/>
     </row>
     <row r="186" spans="2:23">
@@ -5077,7 +5067,7 @@
       <c r="S186" s="5"/>
       <c r="T186" s="5"/>
       <c r="U186" s="5"/>
-      <c r="V186" s="5"/>
+      <c r="V186" s="1"/>
       <c r="W186" s="7"/>
     </row>
     <row r="187" spans="2:23">
@@ -5143,7 +5133,7 @@
       <c r="S189" s="5"/>
       <c r="T189" s="5"/>
       <c r="U189" s="5"/>
-      <c r="V189" s="1"/>
+      <c r="V189" s="5"/>
       <c r="W189" s="7"/>
     </row>
     <row r="190" spans="2:23">
@@ -5165,7 +5155,7 @@
       <c r="S190" s="5"/>
       <c r="T190" s="5"/>
       <c r="U190" s="5"/>
-      <c r="V190" s="1"/>
+      <c r="V190" s="5"/>
       <c r="W190" s="7"/>
     </row>
     <row r="191" spans="2:23">
@@ -5231,7 +5221,7 @@
       <c r="S193" s="5"/>
       <c r="T193" s="5"/>
       <c r="U193" s="5"/>
-      <c r="V193" s="5"/>
+      <c r="V193" s="1"/>
       <c r="W193" s="7"/>
     </row>
     <row r="194" spans="2:23">
@@ -5253,7 +5243,7 @@
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
-      <c r="V194" s="5"/>
+      <c r="V194" s="1"/>
       <c r="W194" s="7"/>
     </row>
     <row r="195" spans="2:23">
@@ -5275,7 +5265,7 @@
       <c r="S195" s="5"/>
       <c r="T195" s="5"/>
       <c r="U195" s="5"/>
-      <c r="V195" s="1"/>
+      <c r="V195" s="5"/>
       <c r="W195" s="7"/>
     </row>
     <row r="196" spans="2:23">
@@ -5297,7 +5287,7 @@
       <c r="S196" s="5"/>
       <c r="T196" s="5"/>
       <c r="U196" s="5"/>
-      <c r="V196" s="1"/>
+      <c r="V196" s="5"/>
       <c r="W196" s="7"/>
     </row>
     <row r="197" spans="2:23">
@@ -5495,7 +5485,7 @@
       <c r="S205" s="5"/>
       <c r="T205" s="5"/>
       <c r="U205" s="5"/>
-      <c r="V205" s="5"/>
+      <c r="V205" s="1"/>
       <c r="W205" s="7"/>
     </row>
     <row r="206" spans="2:23">
@@ -5517,7 +5507,7 @@
       <c r="S206" s="5"/>
       <c r="T206" s="5"/>
       <c r="U206" s="5"/>
-      <c r="V206" s="5"/>
+      <c r="V206" s="1"/>
       <c r="W206" s="7"/>
     </row>
     <row r="207" spans="2:23">
@@ -5539,7 +5529,7 @@
       <c r="S207" s="5"/>
       <c r="T207" s="5"/>
       <c r="U207" s="5"/>
-      <c r="V207" s="1"/>
+      <c r="V207" s="5"/>
       <c r="W207" s="7"/>
     </row>
     <row r="208" spans="2:23">
@@ -5561,7 +5551,7 @@
       <c r="S208" s="5"/>
       <c r="T208" s="5"/>
       <c r="U208" s="5"/>
-      <c r="V208" s="1"/>
+      <c r="V208" s="5"/>
       <c r="W208" s="7"/>
     </row>
     <row r="209" spans="1:23">
@@ -5609,6 +5599,7 @@
       <c r="W210" s="7"/>
     </row>
     <row r="211" spans="1:23">
+      <c r="A211" s="3"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -5627,7 +5618,7 @@
       <c r="S211" s="5"/>
       <c r="T211" s="5"/>
       <c r="U211" s="5"/>
-      <c r="V211" s="5"/>
+      <c r="V211" s="1"/>
       <c r="W211" s="7"/>
     </row>
     <row r="212" spans="1:23">
@@ -5649,11 +5640,11 @@
       <c r="S212" s="5"/>
       <c r="T212" s="5"/>
       <c r="U212" s="5"/>
-      <c r="V212" s="5"/>
+      <c r="V212" s="1"/>
       <c r="W212" s="7"/>
     </row>
     <row r="213" spans="1:23">
-      <c r="A213" s="3"/>
+      <c r="A213" s="8"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
@@ -5672,10 +5663,11 @@
       <c r="S213" s="5"/>
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
-      <c r="V213" s="1"/>
+      <c r="V213" s="5"/>
       <c r="W213" s="7"/>
     </row>
     <row r="214" spans="1:23">
+      <c r="A214" s="3"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -5694,11 +5686,11 @@
       <c r="S214" s="5"/>
       <c r="T214" s="5"/>
       <c r="U214" s="5"/>
-      <c r="V214" s="1"/>
+      <c r="V214" s="5"/>
       <c r="W214" s="7"/>
     </row>
     <row r="215" spans="1:23">
-      <c r="A215" s="8"/>
+      <c r="A215" s="3"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -5721,7 +5713,6 @@
       <c r="W215" s="7"/>
     </row>
     <row r="216" spans="1:23">
-      <c r="A216" s="3"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
@@ -5744,7 +5735,6 @@
       <c r="W216" s="7"/>
     </row>
     <row r="217" spans="1:23">
-      <c r="A217" s="3"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -6207,6 +6197,7 @@
       <c r="W237" s="7"/>
     </row>
     <row r="238" spans="1:23">
+      <c r="A238" s="8"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
@@ -6247,7 +6238,7 @@
       <c r="S239" s="5"/>
       <c r="T239" s="5"/>
       <c r="U239" s="5"/>
-      <c r="V239" s="5"/>
+      <c r="V239" s="1"/>
       <c r="W239" s="7"/>
     </row>
     <row r="240" spans="1:23">
@@ -6270,10 +6261,11 @@
       <c r="S240" s="5"/>
       <c r="T240" s="5"/>
       <c r="U240" s="5"/>
-      <c r="V240" s="5"/>
+      <c r="V240" s="1"/>
       <c r="W240" s="7"/>
     </row>
     <row r="241" spans="1:23">
+      <c r="A241" s="3"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
@@ -6292,11 +6284,10 @@
       <c r="S241" s="5"/>
       <c r="T241" s="5"/>
       <c r="U241" s="5"/>
-      <c r="V241" s="1"/>
+      <c r="V241" s="5"/>
       <c r="W241" s="7"/>
     </row>
     <row r="242" spans="1:23">
-      <c r="A242" s="8"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
@@ -6315,11 +6306,10 @@
       <c r="S242" s="5"/>
       <c r="T242" s="5"/>
       <c r="U242" s="5"/>
-      <c r="V242" s="1"/>
+      <c r="V242" s="5"/>
       <c r="W242" s="7"/>
     </row>
     <row r="243" spans="1:23">
-      <c r="A243" s="3"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
@@ -6338,7 +6328,7 @@
       <c r="S243" s="5"/>
       <c r="T243" s="5"/>
       <c r="U243" s="5"/>
-      <c r="V243" s="5"/>
+      <c r="V243" s="1"/>
       <c r="W243" s="7"/>
     </row>
     <row r="244" spans="1:23">
@@ -6364,6 +6354,7 @@
       <c r="W244" s="7"/>
     </row>
     <row r="245" spans="1:23">
+      <c r="A245" s="8"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
@@ -6382,7 +6373,7 @@
       <c r="S245" s="5"/>
       <c r="T245" s="5"/>
       <c r="U245" s="5"/>
-      <c r="V245" s="1"/>
+      <c r="V245" s="5"/>
       <c r="W245" s="7"/>
     </row>
     <row r="246" spans="1:23">
@@ -6404,7 +6395,7 @@
       <c r="S246" s="5"/>
       <c r="T246" s="5"/>
       <c r="U246" s="5"/>
-      <c r="V246" s="5"/>
+      <c r="V246" s="1"/>
       <c r="W246" s="7"/>
     </row>
     <row r="247" spans="1:23">
@@ -6427,7 +6418,7 @@
       <c r="S247" s="5"/>
       <c r="T247" s="5"/>
       <c r="U247" s="5"/>
-      <c r="V247" s="5"/>
+      <c r="V247" s="1"/>
       <c r="W247" s="7"/>
     </row>
     <row r="248" spans="1:23">
@@ -6453,7 +6444,6 @@
       <c r="W248" s="7"/>
     </row>
     <row r="249" spans="1:23">
-      <c r="A249" s="8"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
@@ -6494,7 +6484,7 @@
       <c r="S250" s="5"/>
       <c r="T250" s="5"/>
       <c r="U250" s="5"/>
-      <c r="V250" s="1"/>
+      <c r="V250" s="5"/>
       <c r="W250" s="7"/>
     </row>
     <row r="251" spans="1:23">
@@ -6516,7 +6506,7 @@
       <c r="S251" s="5"/>
       <c r="T251" s="5"/>
       <c r="U251" s="5"/>
-      <c r="V251" s="1"/>
+      <c r="V251" s="5"/>
       <c r="W251" s="7"/>
     </row>
     <row r="252" spans="1:23">
@@ -6582,7 +6572,7 @@
       <c r="S254" s="5"/>
       <c r="T254" s="5"/>
       <c r="U254" s="5"/>
-      <c r="V254" s="5"/>
+      <c r="V254" s="1"/>
       <c r="W254" s="7"/>
     </row>
     <row r="255" spans="1:23">
@@ -6604,7 +6594,7 @@
       <c r="S255" s="5"/>
       <c r="T255" s="5"/>
       <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
+      <c r="V255" s="1"/>
       <c r="W255" s="7"/>
     </row>
     <row r="256" spans="1:23">
@@ -6626,7 +6616,7 @@
       <c r="S256" s="5"/>
       <c r="T256" s="5"/>
       <c r="U256" s="5"/>
-      <c r="V256" s="1"/>
+      <c r="V256" s="5"/>
       <c r="W256" s="7"/>
     </row>
     <row r="257" spans="2:23">
@@ -6648,7 +6638,7 @@
       <c r="S257" s="5"/>
       <c r="T257" s="5"/>
       <c r="U257" s="5"/>
-      <c r="V257" s="1"/>
+      <c r="V257" s="5"/>
       <c r="W257" s="7"/>
     </row>
     <row r="258" spans="2:23">
@@ -7198,7 +7188,7 @@
       <c r="S282" s="5"/>
       <c r="T282" s="5"/>
       <c r="U282" s="5"/>
-      <c r="V282" s="5"/>
+      <c r="V282" s="1"/>
       <c r="W282" s="7"/>
     </row>
     <row r="283" spans="2:23">
@@ -7220,7 +7210,7 @@
       <c r="S283" s="5"/>
       <c r="T283" s="5"/>
       <c r="U283" s="5"/>
-      <c r="V283" s="5"/>
+      <c r="V283" s="1"/>
       <c r="W283" s="7"/>
     </row>
     <row r="284" spans="2:23">
@@ -7242,7 +7232,7 @@
       <c r="S284" s="5"/>
       <c r="T284" s="5"/>
       <c r="U284" s="5"/>
-      <c r="V284" s="1"/>
+      <c r="V284" s="5"/>
       <c r="W284" s="7"/>
     </row>
     <row r="285" spans="2:23">
@@ -7264,7 +7254,7 @@
       <c r="S285" s="5"/>
       <c r="T285" s="5"/>
       <c r="U285" s="5"/>
-      <c r="V285" s="1"/>
+      <c r="V285" s="5"/>
       <c r="W285" s="7"/>
     </row>
     <row r="286" spans="2:23">
@@ -7286,7 +7276,7 @@
       <c r="S286" s="5"/>
       <c r="T286" s="5"/>
       <c r="U286" s="5"/>
-      <c r="V286" s="5"/>
+      <c r="V286" s="1"/>
       <c r="W286" s="7"/>
     </row>
     <row r="287" spans="2:23">
@@ -7330,7 +7320,7 @@
       <c r="S288" s="5"/>
       <c r="T288" s="5"/>
       <c r="U288" s="5"/>
-      <c r="V288" s="1"/>
+      <c r="V288" s="5"/>
       <c r="W288" s="7"/>
     </row>
     <row r="289" spans="2:23">
@@ -7858,7 +7848,7 @@
       <c r="S312" s="5"/>
       <c r="T312" s="5"/>
       <c r="U312" s="5"/>
-      <c r="V312" s="5"/>
+      <c r="V312" s="1"/>
       <c r="W312" s="7"/>
     </row>
     <row r="313" spans="2:23">
@@ -7880,7 +7870,7 @@
       <c r="S313" s="5"/>
       <c r="T313" s="5"/>
       <c r="U313" s="5"/>
-      <c r="V313" s="5"/>
+      <c r="V313" s="1"/>
       <c r="W313" s="7"/>
     </row>
     <row r="314" spans="2:23">
@@ -7968,7 +7958,7 @@
       <c r="S317" s="5"/>
       <c r="T317" s="5"/>
       <c r="U317" s="5"/>
-      <c r="V317" s="1"/>
+      <c r="V317" s="5"/>
       <c r="W317" s="7"/>
     </row>
     <row r="318" spans="2:23">
@@ -7990,7 +7980,7 @@
       <c r="S318" s="5"/>
       <c r="T318" s="5"/>
       <c r="U318" s="5"/>
-      <c r="V318" s="1"/>
+      <c r="V318" s="5"/>
       <c r="W318" s="7"/>
     </row>
     <row r="319" spans="2:23">
@@ -8056,7 +8046,7 @@
       <c r="S321" s="5"/>
       <c r="T321" s="5"/>
       <c r="U321" s="5"/>
-      <c r="V321" s="5"/>
+      <c r="V321" s="1"/>
       <c r="W321" s="7"/>
     </row>
     <row r="322" spans="2:23">
@@ -8078,7 +8068,7 @@
       <c r="S322" s="5"/>
       <c r="T322" s="5"/>
       <c r="U322" s="5"/>
-      <c r="V322" s="5"/>
+      <c r="V322" s="1"/>
       <c r="W322" s="7"/>
     </row>
     <row r="323" spans="2:23">
@@ -8100,7 +8090,7 @@
       <c r="S323" s="5"/>
       <c r="T323" s="5"/>
       <c r="U323" s="5"/>
-      <c r="V323" s="1"/>
+      <c r="V323" s="5"/>
       <c r="W323" s="7"/>
     </row>
     <row r="324" spans="2:23">
@@ -8122,7 +8112,7 @@
       <c r="S324" s="5"/>
       <c r="T324" s="5"/>
       <c r="U324" s="5"/>
-      <c r="V324" s="1"/>
+      <c r="V324" s="5"/>
       <c r="W324" s="7"/>
     </row>
     <row r="325" spans="2:23">
@@ -8144,7 +8134,7 @@
       <c r="S325" s="5"/>
       <c r="T325" s="5"/>
       <c r="U325" s="5"/>
-      <c r="V325" s="5"/>
+      <c r="V325" s="1"/>
       <c r="W325" s="7"/>
     </row>
     <row r="326" spans="2:23">
@@ -8166,7 +8156,7 @@
       <c r="S326" s="5"/>
       <c r="T326" s="5"/>
       <c r="U326" s="5"/>
-      <c r="V326" s="5"/>
+      <c r="V326" s="1"/>
       <c r="W326" s="7"/>
     </row>
     <row r="327" spans="2:23">
@@ -8188,7 +8178,7 @@
       <c r="S327" s="5"/>
       <c r="T327" s="5"/>
       <c r="U327" s="5"/>
-      <c r="V327" s="1"/>
+      <c r="V327" s="5"/>
       <c r="W327" s="7"/>
     </row>
     <row r="328" spans="2:23">
@@ -8210,7 +8200,7 @@
       <c r="S328" s="5"/>
       <c r="T328" s="5"/>
       <c r="U328" s="5"/>
-      <c r="V328" s="1"/>
+      <c r="V328" s="5"/>
       <c r="W328" s="7"/>
     </row>
     <row r="329" spans="2:23">
@@ -8540,7 +8530,7 @@
       <c r="S343" s="5"/>
       <c r="T343" s="5"/>
       <c r="U343" s="5"/>
-      <c r="V343" s="5"/>
+      <c r="V343" s="1"/>
       <c r="W343" s="7"/>
     </row>
     <row r="344" spans="2:23">
@@ -8562,7 +8552,7 @@
       <c r="S344" s="5"/>
       <c r="T344" s="5"/>
       <c r="U344" s="5"/>
-      <c r="V344" s="5"/>
+      <c r="V344" s="1"/>
       <c r="W344" s="7"/>
     </row>
     <row r="345" spans="2:23">
@@ -8584,7 +8574,7 @@
       <c r="S345" s="5"/>
       <c r="T345" s="5"/>
       <c r="U345" s="5"/>
-      <c r="V345" s="1"/>
+      <c r="V345" s="5"/>
       <c r="W345" s="7"/>
     </row>
     <row r="346" spans="2:23">
@@ -8606,7 +8596,7 @@
       <c r="S346" s="5"/>
       <c r="T346" s="5"/>
       <c r="U346" s="5"/>
-      <c r="V346" s="1"/>
+      <c r="V346" s="5"/>
       <c r="W346" s="7"/>
     </row>
     <row r="347" spans="2:23">
@@ -8716,7 +8706,7 @@
       <c r="S351" s="5"/>
       <c r="T351" s="5"/>
       <c r="U351" s="5"/>
-      <c r="V351" s="5"/>
+      <c r="V351" s="1"/>
       <c r="W351" s="7"/>
     </row>
     <row r="352" spans="2:23">
@@ -8738,7 +8728,7 @@
       <c r="S352" s="5"/>
       <c r="T352" s="5"/>
       <c r="U352" s="5"/>
-      <c r="V352" s="5"/>
+      <c r="V352" s="1"/>
       <c r="W352" s="7"/>
     </row>
     <row r="353" spans="2:23">
@@ -8760,7 +8750,7 @@
       <c r="S353" s="5"/>
       <c r="T353" s="5"/>
       <c r="U353" s="5"/>
-      <c r="V353" s="1"/>
+      <c r="V353" s="5"/>
       <c r="W353" s="7"/>
     </row>
     <row r="354" spans="2:23">
@@ -8782,7 +8772,7 @@
       <c r="S354" s="5"/>
       <c r="T354" s="5"/>
       <c r="U354" s="5"/>
-      <c r="V354" s="1"/>
+      <c r="V354" s="5"/>
       <c r="W354" s="7"/>
     </row>
     <row r="355" spans="2:23">
@@ -8804,7 +8794,7 @@
       <c r="S355" s="5"/>
       <c r="T355" s="5"/>
       <c r="U355" s="5"/>
-      <c r="V355" s="5"/>
+      <c r="V355" s="1"/>
       <c r="W355" s="7"/>
     </row>
     <row r="356" spans="2:23">
@@ -8848,7 +8838,7 @@
       <c r="S357" s="5"/>
       <c r="T357" s="5"/>
       <c r="U357" s="5"/>
-      <c r="V357" s="1"/>
+      <c r="V357" s="5"/>
       <c r="W357" s="7"/>
     </row>
     <row r="358" spans="2:23">
@@ -9288,7 +9278,7 @@
       <c r="S377" s="5"/>
       <c r="T377" s="5"/>
       <c r="U377" s="5"/>
-      <c r="V377" s="5"/>
+      <c r="V377" s="1"/>
       <c r="W377" s="7"/>
     </row>
     <row r="378" spans="2:23">
@@ -9310,7 +9300,7 @@
       <c r="S378" s="5"/>
       <c r="T378" s="5"/>
       <c r="U378" s="5"/>
-      <c r="V378" s="5"/>
+      <c r="V378" s="1"/>
       <c r="W378" s="7"/>
     </row>
     <row r="379" spans="2:23">
@@ -9398,7 +9388,7 @@
       <c r="S382" s="5"/>
       <c r="T382" s="5"/>
       <c r="U382" s="5"/>
-      <c r="V382" s="1"/>
+      <c r="V382" s="5"/>
       <c r="W382" s="7"/>
     </row>
     <row r="383" spans="2:23">
@@ -9420,7 +9410,7 @@
       <c r="S383" s="5"/>
       <c r="T383" s="5"/>
       <c r="U383" s="5"/>
-      <c r="V383" s="1"/>
+      <c r="V383" s="5"/>
       <c r="W383" s="7"/>
     </row>
     <row r="384" spans="2:23">
@@ -9486,7 +9476,7 @@
       <c r="S386" s="5"/>
       <c r="T386" s="5"/>
       <c r="U386" s="5"/>
-      <c r="V386" s="5"/>
+      <c r="V386" s="1"/>
       <c r="W386" s="7"/>
     </row>
     <row r="387" spans="2:23">
@@ -9508,7 +9498,7 @@
       <c r="S387" s="5"/>
       <c r="T387" s="5"/>
       <c r="U387" s="5"/>
-      <c r="V387" s="5"/>
+      <c r="V387" s="1"/>
       <c r="W387" s="7"/>
     </row>
     <row r="388" spans="2:23">
@@ -9530,7 +9520,7 @@
       <c r="S388" s="5"/>
       <c r="T388" s="5"/>
       <c r="U388" s="5"/>
-      <c r="V388" s="1"/>
+      <c r="V388" s="5"/>
       <c r="W388" s="7"/>
     </row>
     <row r="389" spans="2:23">
@@ -9552,7 +9542,7 @@
       <c r="S389" s="5"/>
       <c r="T389" s="5"/>
       <c r="U389" s="5"/>
-      <c r="V389" s="1"/>
+      <c r="V389" s="5"/>
       <c r="W389" s="7"/>
     </row>
     <row r="390" spans="2:23">
@@ -9574,7 +9564,7 @@
       <c r="S390" s="5"/>
       <c r="T390" s="5"/>
       <c r="U390" s="5"/>
-      <c r="V390" s="5"/>
+      <c r="V390" s="1"/>
       <c r="W390" s="7"/>
     </row>
     <row r="391" spans="2:23">
@@ -9596,7 +9586,7 @@
       <c r="S391" s="5"/>
       <c r="T391" s="5"/>
       <c r="U391" s="5"/>
-      <c r="V391" s="5"/>
+      <c r="V391" s="1"/>
       <c r="W391" s="7"/>
     </row>
     <row r="392" spans="2:23">
@@ -9618,7 +9608,7 @@
       <c r="S392" s="5"/>
       <c r="T392" s="5"/>
       <c r="U392" s="5"/>
-      <c r="V392" s="1"/>
+      <c r="V392" s="5"/>
       <c r="W392" s="7"/>
     </row>
     <row r="393" spans="2:23">
@@ -9640,7 +9630,7 @@
       <c r="S393" s="5"/>
       <c r="T393" s="5"/>
       <c r="U393" s="5"/>
-      <c r="V393" s="1"/>
+      <c r="V393" s="5"/>
       <c r="W393" s="7"/>
     </row>
     <row r="394" spans="2:23">
@@ -9970,10 +9960,11 @@
       <c r="S408" s="5"/>
       <c r="T408" s="5"/>
       <c r="U408" s="5"/>
-      <c r="V408" s="5"/>
+      <c r="V408" s="1"/>
       <c r="W408" s="7"/>
     </row>
     <row r="409" spans="1:23">
+      <c r="A409" s="8"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
@@ -9992,7 +9983,7 @@
       <c r="S409" s="5"/>
       <c r="T409" s="5"/>
       <c r="U409" s="5"/>
-      <c r="V409" s="5"/>
+      <c r="V409" s="1"/>
       <c r="W409" s="7"/>
     </row>
     <row r="410" spans="1:23">
@@ -10014,11 +10005,10 @@
       <c r="S410" s="5"/>
       <c r="T410" s="5"/>
       <c r="U410" s="5"/>
-      <c r="V410" s="1"/>
+      <c r="V410" s="5"/>
       <c r="W410" s="7"/>
     </row>
     <row r="411" spans="1:23">
-      <c r="A411" s="8"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
@@ -10037,7 +10027,7 @@
       <c r="S411" s="5"/>
       <c r="T411" s="5"/>
       <c r="U411" s="5"/>
-      <c r="V411" s="1"/>
+      <c r="V411" s="5"/>
       <c r="W411" s="7"/>
     </row>
     <row r="412" spans="1:23">
@@ -10129,6 +10119,7 @@
       <c r="W415" s="7"/>
     </row>
     <row r="416" spans="1:23">
+      <c r="A416" s="3"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
@@ -10147,10 +10138,11 @@
       <c r="S416" s="5"/>
       <c r="T416" s="5"/>
       <c r="U416" s="5"/>
-      <c r="V416" s="5"/>
+      <c r="V416" s="1"/>
       <c r="W416" s="7"/>
     </row>
     <row r="417" spans="1:23">
+      <c r="A417" s="8"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
@@ -10169,11 +10161,10 @@
       <c r="S417" s="5"/>
       <c r="T417" s="5"/>
       <c r="U417" s="5"/>
-      <c r="V417" s="5"/>
+      <c r="V417" s="1"/>
       <c r="W417" s="7"/>
     </row>
     <row r="418" spans="1:23">
-      <c r="A418" s="3"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
@@ -10192,11 +10183,10 @@
       <c r="S418" s="5"/>
       <c r="T418" s="5"/>
       <c r="U418" s="5"/>
-      <c r="V418" s="1"/>
+      <c r="V418" s="5"/>
       <c r="W418" s="7"/>
     </row>
     <row r="419" spans="1:23">
-      <c r="A419" s="8"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
@@ -10215,7 +10205,7 @@
       <c r="S419" s="5"/>
       <c r="T419" s="5"/>
       <c r="U419" s="5"/>
-      <c r="V419" s="1"/>
+      <c r="V419" s="5"/>
       <c r="W419" s="7"/>
     </row>
     <row r="420" spans="1:23">
@@ -10237,52 +10227,8 @@
       <c r="S420" s="5"/>
       <c r="T420" s="5"/>
       <c r="U420" s="5"/>
-      <c r="V420" s="5"/>
+      <c r="V420" s="1"/>
       <c r="W420" s="7"/>
-    </row>
-    <row r="421" spans="1:23">
-      <c r="B421" s="5"/>
-      <c r="C421" s="5"/>
-      <c r="D421" s="5"/>
-      <c r="E421" s="5"/>
-      <c r="H421" s="5"/>
-      <c r="I421" s="5"/>
-      <c r="J421" s="5"/>
-      <c r="K421" s="5"/>
-      <c r="L421" s="5"/>
-      <c r="M421" s="6"/>
-      <c r="N421" s="5"/>
-      <c r="O421" s="5"/>
-      <c r="P421" s="5"/>
-      <c r="Q421" s="5"/>
-      <c r="R421" s="5"/>
-      <c r="S421" s="5"/>
-      <c r="T421" s="5"/>
-      <c r="U421" s="5"/>
-      <c r="V421" s="5"/>
-      <c r="W421" s="7"/>
-    </row>
-    <row r="422" spans="1:23">
-      <c r="B422" s="5"/>
-      <c r="C422" s="5"/>
-      <c r="D422" s="5"/>
-      <c r="E422" s="5"/>
-      <c r="H422" s="5"/>
-      <c r="I422" s="5"/>
-      <c r="J422" s="5"/>
-      <c r="K422" s="5"/>
-      <c r="L422" s="5"/>
-      <c r="M422" s="6"/>
-      <c r="N422" s="5"/>
-      <c r="O422" s="5"/>
-      <c r="P422" s="5"/>
-      <c r="Q422" s="5"/>
-      <c r="R422" s="5"/>
-      <c r="S422" s="5"/>
-      <c r="T422" s="5"/>
-      <c r="U422" s="5"/>
-      <c r="V422" s="1"/>
-      <c r="W422" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
